--- a/AEF_files/202504292100---AEF_CMA6_second_iteration - Guyana 2021.xlsx
+++ b/AEF_files/202504292100---AEF_CMA6_second_iteration - Guyana 2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfccc365.sharepoint.com/sites/Mitigation/Paris Agreement Article 6/Article 6.2/03_CARP/consistency/AEF_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{95979CBD-5358-DB4C-A1FE-4EF9843C9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89BB2935-594D-3A46-B727-CED79AE5D526}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{95979CBD-5358-DB4C-A1FE-4EF9843C9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E390C027-54A6-D742-958C-F0A167381EF6}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="2480" windowWidth="33660" windowHeight="16980" tabRatio="618" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="162">
   <si>
     <t>Table</t>
   </si>
@@ -680,13 +680,16 @@
   <si>
     <t>Refers to the last unique identifier of the underlying unit block.  This field should be reported as ‘Not applicable’ (NA) if the cooperative approach does not use an underlying cooperative approach registry.</t>
   </si>
+  <si>
+    <t>Authorized quantity2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1217,6 +1220,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1237,12 +1246,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2418,7 +2421,7 @@
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="92">
         <v>45904</v>
       </c>
     </row>
@@ -2463,8 +2466,8 @@
       </c>
     </row>
     <row r="13" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2480,7 +2483,7 @@
   <dimension ref="B3:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2516,12 +2519,12 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="33"/>
       <c r="G5" s="34" t="s">
         <v>44</v>
@@ -2578,7 +2581,7 @@
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>27</v>
@@ -2627,7 +2630,7 @@
       <c r="B8" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="93">
         <v>45334</v>
       </c>
       <c r="D8" s="82" t="s">
@@ -2977,17 +2980,17 @@
       <c r="V6" s="38"/>
       <c r="W6" s="38"/>
       <c r="X6" s="36"/>
-      <c r="Y6" s="95" t="s">
+      <c r="Y6" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="Z6" s="95"/>
+      <c r="Z6" s="97"/>
       <c r="AA6" s="40"/>
-      <c r="AB6" s="94" t="s">
+      <c r="AB6" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
+      <c r="AC6" s="96"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="96"/>
       <c r="AF6" s="36"/>
       <c r="AG6" s="23"/>
       <c r="AH6" s="23"/>
@@ -3366,54 +3369,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
       <c r="L3" s="50"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
     </row>
     <row r="4" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
       <c r="D4" s="68"/>
       <c r="E4" s="67"/>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
       <c r="L4" s="69"/>
-      <c r="M4" s="98" t="s">
+      <c r="M4" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
       <c r="R4" s="69"/>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="98"/>
+      <c r="T4" s="100"/>
       <c r="U4" s="36"/>
     </row>
     <row r="5" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3421,16 +3424,16 @@
       <c r="C5" s="23"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="94"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="94" t="s">
+      <c r="I5" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
       <c r="L5" s="18"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
@@ -3451,10 +3454,10 @@
       <c r="G6" s="37"/>
       <c r="H6" s="18"/>
       <c r="I6" s="23"/>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="94"/>
+      <c r="K6" s="96"/>
       <c r="L6" s="18"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
@@ -3980,14 +3983,14 @@
     <row r="34" spans="2:21" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="M3:T3"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4022,11 +4025,11 @@
     </row>
     <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="51"/>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
       <c r="G9" s="52"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -4098,35 +4101,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
-    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
-    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3aa8ea1b9f2e27c2fdef6ef4056186e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16259e29b70fac56f05f7b64cc1f875d" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
@@ -4408,41 +4382,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9846E218-2C67-4B45-A7CB-841EE05F366A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{168BBF08-48BD-4636-A0FB-E838CA0D3218}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
+    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
+    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD37DF8B-D7D5-4071-B258-603837DD9CB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4460,4 +4429,38 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{168BBF08-48BD-4636-A0FB-E838CA0D3218}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9846E218-2C67-4B45-A7CB-841EE05F366A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
+    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AEF_files/202504292100---AEF_CMA6_second_iteration - Guyana 2021.xlsx
+++ b/AEF_files/202504292100---AEF_CMA6_second_iteration - Guyana 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfccc365.sharepoint.com/sites/Mitigation/Paris Agreement Article 6/Article 6.2/03_CARP/consistency/AEF_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{95979CBD-5358-DB4C-A1FE-4EF9843C9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E390C027-54A6-D742-958C-F0A167381EF6}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{95979CBD-5358-DB4C-A1FE-4EF9843C9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB480961-3509-2543-BD1D-FC3AE3358861}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="2480" windowWidth="33660" windowHeight="16980" tabRatio="618" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="163">
   <si>
     <t>Table</t>
   </si>
@@ -682,6 +682,9 @@
   </si>
   <si>
     <t>Authorized quantity2</t>
+  </si>
+  <si>
+    <t>OIMP authorized by the Party2</t>
   </si>
 </sst>
 </file>
@@ -1238,13 +1241,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2483,7 +2486,7 @@
   <dimension ref="B3:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2608,7 +2611,7 @@
         <v>88</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="Q7" s="21" t="s">
         <v>89</v>
@@ -3369,54 +3372,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
       <c r="L3" s="50"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
     </row>
     <row r="4" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
       <c r="D4" s="68"/>
       <c r="E4" s="67"/>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
       <c r="L4" s="69"/>
-      <c r="M4" s="100" t="s">
+      <c r="M4" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
       <c r="R4" s="69"/>
-      <c r="S4" s="100" t="s">
+      <c r="S4" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="100"/>
+      <c r="T4" s="98"/>
       <c r="U4" s="36"/>
     </row>
     <row r="5" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4101,6 +4104,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
+    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
+    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3aa8ea1b9f2e27c2fdef6ef4056186e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16259e29b70fac56f05f7b64cc1f875d" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
@@ -4382,36 +4409,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9846E218-2C67-4B45-A7CB-841EE05F366A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
-    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
-    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
+    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD37DF8B-D7D5-4071-B258-603837DD9CB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4431,36 +4460,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{168BBF08-48BD-4636-A0FB-E838CA0D3218}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9846E218-2C67-4B45-A7CB-841EE05F366A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
-    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>